--- a/corpus_scripts_output/50 words.xlsx
+++ b/corpus_scripts_output/50 words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alessandro/Documents/GitHub/seed-semantic-change/corpus_scripts_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7922D8DF-CEF7-4A40-85D6-6F9F8F0199CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A5487CE-713F-874C-8C56-52FE1D7DA64E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{F2D3D4C4-FAAD-624D-AD56-456B513DBE70}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>ψυχρός</t>
   </si>
   <si>
-    <t>ὄγκος (2)</t>
-  </si>
-  <si>
     <t>ῥυθμός</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>δεινός</t>
+  </si>
+  <si>
+    <t>ὄγκος</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>23726</v>
@@ -639,15 +639,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
-        <v>71977</v>
+        <v>71976</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>92783</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>17483</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>104274</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>110272</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>98414</v>
